--- a/src/test/java/data/UserData.xlsx
+++ b/src/test/java/data/UserData.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20346"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\SeleniumFramwork1\src\test\java\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F8517A-C4CF-43D6-A6DB-B8F454273770}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14130" windowHeight="3450" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="2448" windowWidth="14136" windowHeight="3456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RegisterData" sheetId="1" r:id="rId1"/>
@@ -15,12 +21,11 @@
     <sheet name="newsltter_success" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="C1:L12"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>sameh</t>
   </si>
@@ -61,9 +66,6 @@
     <t>Password is required.</t>
   </si>
   <si>
-    <t>Test@123</t>
-  </si>
-  <si>
     <t>Aspire</t>
   </si>
   <si>
@@ -97,16 +99,19 @@
     <t>This email address is already register</t>
   </si>
   <si>
-    <t>h11isham1234@mac.com</t>
-  </si>
-  <si>
     <t>h11isham123411@mac.com</t>
   </si>
+  <si>
+    <t>ancimanci@gmail.com</t>
+  </si>
+  <si>
+    <t>janaluka1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -160,6 +165,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -207,7 +215,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -240,9 +248,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -275,6 +300,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -450,61 +492,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
       <c r="C1" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1"/>
-    <hyperlink ref="D1" r:id="rId2"/>
+    <hyperlink ref="C1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D1" r:id="rId2" display="Test@123" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
         <v>14</v>
-      </c>
-      <c r="B1" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -513,22 +551,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" customWidth="1"/>
+    <col min="5" max="5" width="24.88671875" customWidth="1"/>
+    <col min="6" max="6" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -536,34 +574,34 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>104652956</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1"/>
+    <hyperlink ref="C1" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -578,7 +616,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -593,7 +631,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -610,7 +648,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -627,92 +665,92 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1"/>
-    <hyperlink ref="C4" r:id="rId2"/>
-    <hyperlink ref="C2" r:id="rId3"/>
-    <hyperlink ref="C3" r:id="rId4"/>
+    <hyperlink ref="C1" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="C3" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="37.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="37.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" customWidth="1"/>
     <col min="3" max="3" width="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
